--- a/JubileeLineAnnouncementDataSheet.xlsx
+++ b/JubileeLineAnnouncementDataSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William.locket\Downloads\London-Underground-announcements-main (1)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82DAB17-25C7-4CED-8DCB-58CE92568E76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1D2B50-1C0A-4FAC-B3A9-DCB517347DDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{97AD64D1-D0EC-4EC0-AD3E-B3905C947CC3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="112">
   <si>
     <t>ID</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Waterloo, change here for the bakerloo, northern and waterloo and city lines, and national rail services</t>
   </si>
   <si>
-    <t>Southwalk, change here for national rail services from Waterloo East</t>
-  </si>
-  <si>
     <t>London Bridge, change here for the northern line, and national rail services</t>
   </si>
   <si>
@@ -138,9 +135,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>Elizabeth Line</t>
-  </si>
-  <si>
     <t>Canada Water, change here for london overground</t>
   </si>
   <si>
@@ -238,6 +232,135 @@
   </si>
   <si>
     <t>Stratford, Change for the central line, dlr, elizabeth line, london overground, and national rail services</t>
+  </si>
+  <si>
+    <t>Wenbley Park</t>
+  </si>
+  <si>
+    <t>West Hampstead</t>
+  </si>
+  <si>
+    <t>Finchley Road</t>
+  </si>
+  <si>
+    <t>Green Park</t>
+  </si>
+  <si>
+    <t>Charing Cross</t>
+  </si>
+  <si>
+    <t>Waterloo</t>
+  </si>
+  <si>
+    <t>London Bridge</t>
+  </si>
+  <si>
+    <t>Canary Wharf</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Stratford</t>
+  </si>
+  <si>
+    <t>Exit for westminster abbey, and houses of parliament</t>
+  </si>
+  <si>
+    <t>Bond Street</t>
+  </si>
+  <si>
+    <t>All change please, this train terminates here, all change</t>
+  </si>
+  <si>
+    <t>This station is</t>
+  </si>
+  <si>
+    <t>The next station is</t>
+  </si>
+  <si>
+    <t>This train terminates at</t>
+  </si>
+  <si>
+    <t>Exit here for the emirates airline and the O2</t>
+  </si>
+  <si>
+    <t>Exit for wembley national stadium</t>
+  </si>
+  <si>
+    <t>Exit for buckingham palace</t>
+  </si>
+  <si>
+    <t>Wembley Park</t>
+  </si>
+  <si>
+    <t>Baker Street</t>
+  </si>
+  <si>
+    <t>Westminster</t>
+  </si>
+  <si>
+    <t>Change here for the northern line</t>
+  </si>
+  <si>
+    <t>Change for the northern line</t>
+  </si>
+  <si>
+    <t>Southwark, change here for national rail services from Waterloo East</t>
+  </si>
+  <si>
+    <t>Southwark</t>
+  </si>
+  <si>
+    <t>Canada Water</t>
+  </si>
+  <si>
+    <t>Exit here for the O2</t>
+  </si>
+  <si>
+    <t>Canning Town</t>
+  </si>
+  <si>
+    <t>Please mind the gap, between the train and the platform</t>
+  </si>
+  <si>
+    <t>Exit here for westminster abbey, and houses of parliament</t>
+  </si>
+  <si>
+    <t>Change here for the central line</t>
+  </si>
+  <si>
+    <t>Doors will open on the left hand side</t>
+  </si>
+  <si>
+    <t>Doors will open on the right hand side</t>
+  </si>
+  <si>
+    <t>JUB_NSI_CGT</t>
+  </si>
+  <si>
+    <t>JUB_NSI_CGT_NT</t>
+  </si>
+  <si>
+    <t>JUB_TSI_CGT</t>
+  </si>
+  <si>
+    <t>JUB_TSI_CGT_NT</t>
+  </si>
+  <si>
+    <t>The next station is canning town, doors will open on the right hand side, change for dlr, including services to the excel exhibition centre, london city airport, and city hall</t>
+  </si>
+  <si>
+    <t>The next station is canning town, doors will open on the right hand side</t>
+  </si>
+  <si>
+    <t>This station is canning town, change here for dlr, including services to the excel exhibition centre, london city airport, and city hall</t>
+  </si>
+  <si>
+    <t>This station is canning town</t>
+  </si>
+  <si>
+    <t>New 2022</t>
   </si>
 </sst>
 </file>
@@ -262,6 +385,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,17 +400,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
+        <fgColor rgb="FF8439BD"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -295,19 +434,24 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8439BD"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -619,32 +763,32 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="126.42578125" customWidth="1"/>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="149.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -652,511 +796,928 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>0</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>2</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>8</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>9</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>10</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>11</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>13</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>14</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>15</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>16</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>17</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>18</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>19</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>20</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>21</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>22</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>23</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>24</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>25</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>26</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>27</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>28</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>29</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>30</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>30</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>31</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>31</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>32</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>33</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>34</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>32</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>33</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="B41" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="3">
-        <v>34</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>36</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>37</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="3">
-        <v>35</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="3">
-        <v>36</v>
-      </c>
-      <c r="B42" s="3" t="s">
+      <c r="B44" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>62</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
         <v>63</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="3">
-        <v>37</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="B46" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="3">
-        <v>62</v>
-      </c>
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>67</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="3">
-        <v>63</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>68</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="3">
-        <v>67</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>71</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="3">
-        <v>68</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>72</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="3">
-        <v>71</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="3">
-        <v>72</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="2">
         <v>73</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>74</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>75</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="3">
-        <v>74</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>76</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <v>75</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>77</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3">
-        <v>76</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>78</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="3">
-        <v>77</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>81</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="3">
-        <v>78</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>82</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="3">
-        <v>81</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3">
-        <v>82</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="3">
+      <c r="A61" s="2">
         <v>84</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>61</v>
+      <c r="B61" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3">
+      <c r="A62" s="2">
         <v>85</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>86</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="3">
-        <v>86</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>106</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>107</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>108</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B64" s="2" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>109</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>110</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>111</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>112</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>113</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>114</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>115</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>116</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>117</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>118</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>119</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>120</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>122</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>123</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>130</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>131</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>132</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>144</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>150</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>151</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>152</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>161</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>163</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>164</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>165</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>170</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>171</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>172</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>173</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>174</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>175</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>176</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>177</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>178</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>179</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>180</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>181</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>182</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>183</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>184</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>185</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>186</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>187</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>188</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>189</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>190</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>191</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="3">
-        <v>107</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>13</v>
+      <c r="B118" s="5" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="64" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="42" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>